--- a/data/wage-inflation-data.xlsx
+++ b/data/wage-inflation-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zrtm\Michael Kozin\R\WPT_ECB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\research\Dropbox\Documents\wage-inflation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FAME Persistence2" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -477,9 +477,6 @@
     <t>p_tran</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>lc_ag</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
   </si>
   <si>
     <t>lc_tran</t>
-  </si>
-  <si>
-    <t>lc</t>
   </si>
   <si>
     <t>p_ser_bis</t>
@@ -520,6 +514,12 @@
   </si>
   <si>
     <t>R_data</t>
+  </si>
+  <si>
+    <t>p_all</t>
+  </si>
+  <si>
+    <t>lc_all</t>
   </si>
 </sst>
 </file>
@@ -866,12 +866,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="populator"/>
     </sheetNames>
     <definedNames>
       <definedName name="FAMEData"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1151,7 +1153,7 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1177,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>68</v>
@@ -1221,7 +1223,7 @@
         <v>57</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>68</v>
@@ -1265,7 +1267,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>68</v>
@@ -1309,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>68</v>
@@ -1353,7 +1355,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>68</v>
@@ -1397,7 +1399,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>68</v>
@@ -1441,7 +1443,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>68</v>
@@ -1485,7 +1487,7 @@
         <v>64</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>68</v>
@@ -1529,7 +1531,7 @@
         <v>72</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>68</v>
@@ -1772,7 +1774,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -8820,7 +8822,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8882,7 +8884,7 @@
         <v>71</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -8905,40 +8907,40 @@
         <v>142</v>
       </c>
       <c r="G2" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="44" t="s">
+      <c r="Q2" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="44" t="s">
         <v>153</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
